--- a/biology/Zoologie/Cassidulidae/Cassidulidae.xlsx
+++ b/biology/Zoologie/Cassidulidae/Cassidulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Cassidulidae regroupe plusieurs genres d'oursins dits « irréguliers », appartenant à l'ordre des Cassiduloida.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cassiduloida sont des oursins irréguliers, au corps légèrement ovoïde ; leur bouche est avancée vers un côté, dépourvue de lanterne d'Aristote, leur face aborale est convexe et leur face orale plane.
 Les oursins de cette famille ont un test ovale à subpolygonal, avec une face orale plate. 
@@ -520,8 +534,8 @@
 Le péristome est équipé d'un vestibule vertical cloisonné et de légers bourrelets. Les plaques basicoronales sont courtes. On note la présence de radioles périorales spécialisées sur des tubercules de même, mais confinés au vestibule buccal. 
 Les phyllodes sont élargis, avec des pores uniques, en séries externes et internes (les internes pouvant être très réduites). 
 Le périprocte est supramarginal à marginal, allongé transversalement, associé à un léger rebord subanal ou une courte dépression anale. 
-On note la présence d'une large zone sternale nue et ponctuée devant et derrière le péristome[2].
-Cet ordre semble être apparu au Crétacé inférieur (Albien)[2].
+On note la présence d'une large zone sternale nue et ponctuée devant et derrière le péristome.
+Cet ordre semble être apparu au Crétacé inférieur (Albien).
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 juin 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 juin 2014) :
 genre Cassidulus Lamarck, 1801 (5 espèces actuelles)
 genre Eurhodia Haime, in d'Archiac &amp; Haime, 1853 (1 espèce actuelle)
 genre Glossaster Lambert, 1918a †
